--- a/Locations/Locations.xlsx
+++ b/Locations/Locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james.coker\Documents\UiPath\UiPathMockPOC-ZipCodeLookup\Locations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7585B74-8F25-4F33-A685-4FD3EFB877B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50603F2D-437A-4AC6-B954-C26915115083}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="11244" xr2:uid="{0844E4D5-8E17-457A-8377-1F9F3E09EA52}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="11244" xr2:uid="{3EF82A19-1150-4E1F-ACDB-4380409BB5B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
     <t>KING OF PRUSSIA, PA, 19406</t>
   </si>
   <si>
-    <t>KNG OF PRUSSA,NORRISTOWN</t>
+    <t>KNG OF PRUSSA, NORRISTOWN</t>
   </si>
   <si>
     <t>Success</t>
@@ -93,7 +93,7 @@
     <t>NORRISTOWN, PA, 19403</t>
   </si>
   <si>
-    <t>AUDUBON,EAGLEVILLE,EAST NORRITON,JEFFERSONVILLE,JEFFERSONVLLE,TROOPER</t>
+    <t>AUDUBON, EAGLEVILLE, EAST NORRITON, JEFFERSONVILLE, JEFFERSONVLLE, TROOPER</t>
   </si>
   <si>
     <t>I9OO4</t>
@@ -159,7 +159,7 @@
     <t>FARGO, ND, 58102</t>
   </si>
   <si>
-    <t>NORTH RIVER,REILES ACRES</t>
+    <t>NORTH RIVER, REILES ACRES</t>
   </si>
   <si>
     <t>REFORM</t>
@@ -549,7 +549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6E9CDE-1069-4067-BA14-8C27397884A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8258C1E0-885E-4665-98AB-8CF1B96F7290}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
